--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/ENTRADAS  OBRADOR   Julio      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/ENTRADAS  OBRADOR   Julio      2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="398">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1230,6 +1230,27 @@
   </si>
   <si>
     <t>0062 D1</t>
+  </si>
+  <si>
+    <t>0098 D1</t>
+  </si>
+  <si>
+    <t>0113 D1</t>
+  </si>
+  <si>
+    <t>0121 D1</t>
+  </si>
+  <si>
+    <t>0152 D1</t>
+  </si>
+  <si>
+    <t>0170 D1</t>
+  </si>
+  <si>
+    <t>0185 D1</t>
+  </si>
+  <si>
+    <t>0198 D1</t>
   </si>
 </sst>
 </file>
@@ -4620,6 +4641,18 @@
     <xf numFmtId="4" fontId="72" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4665,40 +4698,88 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4737,89 +4818,41 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4834,18 +4867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4896,17 +4917,17 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4920,17 +4941,17 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5262,49 +5283,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="609" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="606" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="606"/>
+      <c r="S1" s="610" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="610"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="608" t="s">
+      <c r="W1" s="612" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="609"/>
+      <c r="X1" s="613"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="605"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
+      <c r="A2" s="609"/>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -5312,8 +5333,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="607"/>
+      <c r="S2" s="611"/>
+      <c r="T2" s="611"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -5358,10 +5379,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="610" t="s">
+      <c r="O3" s="614" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="611"/>
+      <c r="P3" s="615"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -8682,8 +8703,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="612"/>
-      <c r="M90" s="613"/>
+      <c r="L90" s="616"/>
+      <c r="M90" s="617"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8715,8 +8736,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="612"/>
-      <c r="M91" s="613"/>
+      <c r="L91" s="616"/>
+      <c r="M91" s="617"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8919,8 +8940,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="614"/>
-      <c r="P97" s="616"/>
+      <c r="O97" s="618"/>
+      <c r="P97" s="620"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -8952,8 +8973,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="615"/>
-      <c r="P98" s="617"/>
+      <c r="O98" s="619"/>
+      <c r="P98" s="621"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -14345,11 +14366,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="603" t="s">
+      <c r="F262" s="607" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="603"/>
-      <c r="H262" s="604"/>
+      <c r="G262" s="607"/>
+      <c r="H262" s="608"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -14975,49 +14996,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="609" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="606" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="606"/>
+      <c r="S1" s="610" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="610"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="608" t="s">
+      <c r="W1" s="612" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="609"/>
+      <c r="X1" s="613"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="605"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
+      <c r="A2" s="609"/>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -15025,8 +15046,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="607"/>
+      <c r="S2" s="611"/>
+      <c r="T2" s="611"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -15071,10 +15092,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="610" t="s">
+      <c r="O3" s="614" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="611"/>
+      <c r="P3" s="615"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -17407,13 +17428,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="620" t="s">
+      <c r="A59" s="664" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="622" t="s">
+      <c r="C59" s="666" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -17421,10 +17442,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="624">
+      <c r="G59" s="668">
         <v>44981</v>
       </c>
-      <c r="H59" s="626" t="s">
+      <c r="H59" s="670" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -17443,10 +17464,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="628" t="s">
+      <c r="O59" s="672" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="618">
+      <c r="P59" s="662">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -17457,18 +17478,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="621"/>
+      <c r="A60" s="665"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="623"/>
+      <c r="C60" s="667"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="625"/>
-      <c r="H60" s="627"/>
+      <c r="G60" s="669"/>
+      <c r="H60" s="671"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17485,8 +17506,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="629"/>
-      <c r="P60" s="619"/>
+      <c r="O60" s="673"/>
+      <c r="P60" s="663"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17724,7 +17745,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="658" t="s">
+      <c r="A66" s="622" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17736,10 +17757,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="660">
+      <c r="G66" s="624">
         <v>44973</v>
       </c>
-      <c r="H66" s="662" t="s">
+      <c r="H66" s="626" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17758,10 +17779,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="664" t="s">
+      <c r="O66" s="628" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="666">
+      <c r="P66" s="630">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17772,7 +17793,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="659"/>
+      <c r="A67" s="623"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17782,8 +17803,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="661"/>
-      <c r="H67" s="663"/>
+      <c r="G67" s="625"/>
+      <c r="H67" s="627"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17800,8 +17821,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="665"/>
-      <c r="P67" s="667"/>
+      <c r="O67" s="629"/>
+      <c r="P67" s="631"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17859,13 +17880,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="632" t="s">
+      <c r="A69" s="652" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="634" t="s">
+      <c r="C69" s="654" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17873,10 +17894,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="638">
+      <c r="G69" s="658">
         <v>44979</v>
       </c>
-      <c r="H69" s="636" t="s">
+      <c r="H69" s="656" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17895,10 +17916,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="640" t="s">
+      <c r="O69" s="660" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="630">
+      <c r="P69" s="650">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17909,18 +17930,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="633"/>
+      <c r="A70" s="653"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="635"/>
+      <c r="C70" s="655"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="639"/>
-      <c r="H70" s="637"/>
+      <c r="G70" s="659"/>
+      <c r="H70" s="657"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17937,8 +17958,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="641"/>
-      <c r="P70" s="631"/>
+      <c r="O70" s="661"/>
+      <c r="P70" s="651"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17947,13 +17968,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="646" t="s">
+      <c r="A71" s="640" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="644" t="s">
+      <c r="C71" s="638" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17961,10 +17982,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="649">
+      <c r="G71" s="643">
         <v>44982</v>
       </c>
-      <c r="H71" s="651" t="s">
+      <c r="H71" s="645" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -17983,10 +18004,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="654" t="s">
+      <c r="O71" s="634" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="642">
+      <c r="P71" s="636">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -17997,18 +18018,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="646"/>
+      <c r="A72" s="640"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="648"/>
+      <c r="C72" s="642"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="649"/>
-      <c r="H72" s="652"/>
+      <c r="G72" s="643"/>
+      <c r="H72" s="646"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -18025,8 +18046,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="655"/>
-      <c r="P72" s="657"/>
+      <c r="O72" s="648"/>
+      <c r="P72" s="649"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -18035,18 +18056,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="647"/>
+      <c r="A73" s="641"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="645"/>
+      <c r="C73" s="639"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="650"/>
-      <c r="H73" s="653"/>
+      <c r="G73" s="644"/>
+      <c r="H73" s="647"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -18063,8 +18084,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="656"/>
-      <c r="P73" s="643"/>
+      <c r="O73" s="635"/>
+      <c r="P73" s="637"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -18240,13 +18261,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="658" t="s">
+      <c r="A80" s="622" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="644" t="s">
+      <c r="C80" s="638" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -18257,7 +18278,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="668" t="s">
+      <c r="H80" s="632" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -18276,10 +18297,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="654" t="s">
+      <c r="O80" s="634" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="642">
+      <c r="P80" s="636">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -18290,11 +18311,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="659"/>
+      <c r="A81" s="623"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="645"/>
+      <c r="C81" s="639"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -18303,7 +18324,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="669"/>
+      <c r="H81" s="633"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -18320,8 +18341,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="656"/>
-      <c r="P81" s="643"/>
+      <c r="O81" s="635"/>
+      <c r="P81" s="637"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -18872,8 +18893,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="612"/>
-      <c r="M99" s="613"/>
+      <c r="L99" s="616"/>
+      <c r="M99" s="617"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18905,8 +18926,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="612"/>
-      <c r="M100" s="613"/>
+      <c r="L100" s="616"/>
+      <c r="M100" s="617"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19109,8 +19130,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="614"/>
-      <c r="P106" s="616"/>
+      <c r="O106" s="618"/>
+      <c r="P106" s="620"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -19142,8 +19163,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="615"/>
-      <c r="P107" s="617"/>
+      <c r="O107" s="619"/>
+      <c r="P107" s="621"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -24535,11 +24556,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="603" t="s">
+      <c r="F271" s="607" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="603"/>
-      <c r="H271" s="604"/>
+      <c r="G271" s="607"/>
+      <c r="H271" s="608"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -25113,6 +25134,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -25129,26 +25170,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25196,49 +25217,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="609" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="606" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="606"/>
+      <c r="S1" s="610" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="610"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="608" t="s">
+      <c r="W1" s="612" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="609"/>
+      <c r="X1" s="613"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="605"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
+      <c r="A2" s="609"/>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -25246,8 +25267,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="607"/>
+      <c r="S2" s="611"/>
+      <c r="T2" s="611"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -25292,10 +25313,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="610" t="s">
+      <c r="O3" s="614" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="611"/>
+      <c r="P3" s="615"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -28876,13 +28897,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="658" t="s">
+      <c r="A83" s="622" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="644" t="s">
+      <c r="C83" s="638" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28890,10 +28911,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="624">
+      <c r="G83" s="668">
         <v>45014</v>
       </c>
-      <c r="H83" s="670" t="s">
+      <c r="H83" s="674" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -28906,7 +28927,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="674" t="s">
+      <c r="L83" s="678" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -28914,10 +28935,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="614" t="s">
+      <c r="O83" s="618" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="672">
+      <c r="P83" s="676">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -28928,18 +28949,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="659"/>
+      <c r="A84" s="623"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="645"/>
+      <c r="C84" s="639"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="625"/>
-      <c r="H84" s="671"/>
+      <c r="G84" s="669"/>
+      <c r="H84" s="675"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -28950,14 +28971,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="674"/>
+      <c r="L84" s="678"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="615"/>
-      <c r="P84" s="673"/>
+      <c r="O84" s="619"/>
+      <c r="P84" s="677"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -29388,8 +29409,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="612"/>
-      <c r="M98" s="613"/>
+      <c r="L98" s="616"/>
+      <c r="M98" s="617"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29421,8 +29442,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="612"/>
-      <c r="M99" s="613"/>
+      <c r="L99" s="616"/>
+      <c r="M99" s="617"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29625,8 +29646,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="614"/>
-      <c r="P105" s="616"/>
+      <c r="O105" s="618"/>
+      <c r="P105" s="620"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -29658,8 +29679,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="615"/>
-      <c r="P106" s="617"/>
+      <c r="O106" s="619"/>
+      <c r="P106" s="621"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -35051,11 +35072,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="603" t="s">
+      <c r="F270" s="607" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="603"/>
-      <c r="H270" s="604"/>
+      <c r="G270" s="607"/>
+      <c r="H270" s="608"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601739.64578900009</v>
@@ -35691,49 +35712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="609" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="606" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="606"/>
+      <c r="S1" s="610" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="610"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="608" t="s">
+      <c r="W1" s="612" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="609"/>
+      <c r="X1" s="613"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="605"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
+      <c r="A2" s="609"/>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -35741,8 +35762,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="607"/>
+      <c r="S2" s="611"/>
+      <c r="T2" s="611"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -35787,10 +35808,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="610" t="s">
+      <c r="O3" s="614" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="611"/>
+      <c r="P3" s="615"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -38219,7 +38240,7 @@
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="644" t="s">
+      <c r="C60" s="638" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -38249,10 +38270,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="675" t="s">
+      <c r="O60" s="695" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="677">
+      <c r="P60" s="697">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -38267,7 +38288,7 @@
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="645"/>
+      <c r="C61" s="639"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
@@ -38291,8 +38312,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="676"/>
-      <c r="P61" s="678"/>
+      <c r="O61" s="696"/>
+      <c r="P61" s="698"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38542,7 +38563,7 @@
       <c r="O66" s="687" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="642">
+      <c r="P66" s="636">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38582,7 +38603,7 @@
         <v>63459.899999999994</v>
       </c>
       <c r="O67" s="688"/>
-      <c r="P67" s="643"/>
+      <c r="P67" s="637"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -39243,8 +39264,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O87" s="614"/>
-      <c r="P87" s="672"/>
+      <c r="O87" s="618"/>
+      <c r="P87" s="676"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -39273,8 +39294,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O88" s="615"/>
-      <c r="P88" s="673"/>
+      <c r="O88" s="619"/>
+      <c r="P88" s="677"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -39705,8 +39726,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="612"/>
-      <c r="M102" s="613"/>
+      <c r="L102" s="616"/>
+      <c r="M102" s="617"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39738,8 +39759,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="612"/>
-      <c r="M103" s="613"/>
+      <c r="L103" s="616"/>
+      <c r="M103" s="617"/>
       <c r="N103" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39942,8 +39963,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O109" s="614"/>
-      <c r="P109" s="616"/>
+      <c r="O109" s="618"/>
+      <c r="P109" s="620"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -39975,8 +39996,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O110" s="615"/>
-      <c r="P110" s="617"/>
+      <c r="O110" s="619"/>
+      <c r="P110" s="621"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -45368,11 +45389,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F274" s="603" t="s">
+      <c r="F274" s="607" t="s">
         <v>27</v>
       </c>
-      <c r="G274" s="603"/>
-      <c r="H274" s="604"/>
+      <c r="G274" s="607"/>
+      <c r="H274" s="608"/>
       <c r="I274" s="303">
         <f>SUM(I4:I273)</f>
         <v>409425.92000000004</v>
@@ -45946,6 +45967,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
@@ -45961,13 +45989,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46013,49 +46034,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="609" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="606" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="606"/>
+      <c r="S1" s="610" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="610"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="608" t="s">
+      <c r="W1" s="612" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="609"/>
+      <c r="X1" s="613"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="605"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
+      <c r="A2" s="609"/>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -46063,8 +46084,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="607"/>
+      <c r="S2" s="611"/>
+      <c r="T2" s="611"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -46109,10 +46130,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="610" t="s">
+      <c r="O3" s="614" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="611"/>
+      <c r="P3" s="615"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -49630,8 +49651,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O89" s="614"/>
-      <c r="P89" s="672"/>
+      <c r="O89" s="618"/>
+      <c r="P89" s="676"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -49660,8 +49681,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O90" s="615"/>
-      <c r="P90" s="673"/>
+      <c r="O90" s="619"/>
+      <c r="P90" s="677"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -50092,8 +50113,8 @@
         <v>0</v>
       </c>
       <c r="K104" s="81"/>
-      <c r="L104" s="612"/>
-      <c r="M104" s="613"/>
+      <c r="L104" s="616"/>
+      <c r="M104" s="617"/>
       <c r="N104" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50125,8 +50146,8 @@
         <v>0</v>
       </c>
       <c r="K105" s="81"/>
-      <c r="L105" s="612"/>
-      <c r="M105" s="613"/>
+      <c r="L105" s="616"/>
+      <c r="M105" s="617"/>
       <c r="N105" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50329,8 +50350,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O111" s="614"/>
-      <c r="P111" s="616"/>
+      <c r="O111" s="618"/>
+      <c r="P111" s="620"/>
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
@@ -50362,8 +50383,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O112" s="615"/>
-      <c r="P112" s="617"/>
+      <c r="O112" s="619"/>
+      <c r="P112" s="621"/>
       <c r="Q112" s="158"/>
       <c r="R112" s="125"/>
       <c r="S112" s="176"/>
@@ -55755,11 +55776,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F276" s="603" t="s">
+      <c r="F276" s="607" t="s">
         <v>27</v>
       </c>
-      <c r="G276" s="603"/>
-      <c r="H276" s="604"/>
+      <c r="G276" s="607"/>
+      <c r="H276" s="608"/>
       <c r="I276" s="303">
         <f>SUM(I4:I275)</f>
         <v>446614.07</v>
@@ -56333,16 +56354,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
     <mergeCell ref="L104:M105"/>
     <mergeCell ref="O111:O112"/>
     <mergeCell ref="P111:P112"/>
     <mergeCell ref="F276:H276"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56357,10 +56378,10 @@
   <dimension ref="A1:X314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -56390,49 +56411,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="609" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
       <c r="K1" s="363"/>
       <c r="L1" s="562"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="606" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="606"/>
+      <c r="S1" s="610" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="610"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="608" t="s">
+      <c r="W1" s="612" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="609"/>
+      <c r="X1" s="613"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="605"/>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
+      <c r="A2" s="609"/>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
       <c r="K2" s="365"/>
       <c r="L2" s="563"/>
       <c r="M2" s="365"/>
@@ -56440,8 +56461,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="607"/>
-      <c r="T2" s="607"/>
+      <c r="S2" s="611"/>
+      <c r="T2" s="611"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -56486,10 +56507,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="610" t="s">
+      <c r="O3" s="614" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="611"/>
+      <c r="P3" s="615"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -56646,14 +56667,14 @@
         <f>D6*F6</f>
         <v>19113</v>
       </c>
-      <c r="F6" s="703">
+      <c r="F6" s="603">
         <v>831</v>
       </c>
-      <c r="G6" s="704">
+      <c r="G6" s="604">
         <v>45082</v>
       </c>
-      <c r="H6" s="705"/>
-      <c r="I6" s="706">
+      <c r="H6" s="605"/>
+      <c r="I6" s="606">
         <v>806</v>
       </c>
       <c r="J6" s="39">
@@ -56682,11 +56703,15 @@
       <c r="B7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="56">
+        <v>49</v>
+      </c>
       <c r="E7" s="34">
         <f>D7*F7</f>
-        <v>0</v>
+        <v>1080940</v>
       </c>
       <c r="F7" s="504">
         <v>22060</v>
@@ -56737,11 +56762,15 @@
       <c r="B8" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="56">
+        <v>49</v>
+      </c>
       <c r="E8" s="34">
         <f t="shared" ref="E8:E59" si="1">D8*F8</f>
-        <v>0</v>
+        <v>529200</v>
       </c>
       <c r="F8" s="504">
         <v>10800</v>
@@ -56790,11 +56819,15 @@
       <c r="B9" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" s="56">
+        <v>49</v>
+      </c>
       <c r="E9" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>460600</v>
       </c>
       <c r="F9" s="504">
         <v>9400</v>
@@ -56845,14 +56878,18 @@
       <c r="B10" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" s="56">
+        <v>51</v>
+      </c>
       <c r="E10" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>577830</v>
       </c>
       <c r="F10" s="504">
-        <v>11233.4</v>
+        <v>11330</v>
       </c>
       <c r="G10" s="376">
         <v>45092</v>
@@ -56865,7 +56902,7 @@
       </c>
       <c r="J10" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-96.600000000000364</v>
       </c>
       <c r="K10" s="40">
         <v>48</v>
@@ -56898,11 +56935,15 @@
       <c r="B11" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="56"/>
+      <c r="C11" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="56">
+        <v>51</v>
+      </c>
       <c r="E11" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549780</v>
       </c>
       <c r="F11" s="504">
         <v>10780</v>
@@ -56953,11 +56994,15 @@
       <c r="B12" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="56">
+        <v>51</v>
+      </c>
       <c r="E12" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>531420</v>
       </c>
       <c r="F12" s="504">
         <v>10420</v>
@@ -57006,11 +57051,15 @@
       <c r="B13" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="C13" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="56">
+        <v>52</v>
+      </c>
       <c r="E13" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>588640</v>
       </c>
       <c r="F13" s="504">
         <v>11320</v>
@@ -58850,7 +58899,7 @@
       <c r="V61" s="50"/>
     </row>
     <row r="62" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="658" t="s">
+      <c r="A62" s="622" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="153" t="s">
@@ -58884,10 +58933,10 @@
         <f t="shared" si="4"/>
         <v>51804</v>
       </c>
-      <c r="O62" s="695" t="s">
+      <c r="O62" s="703" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="697">
+      <c r="P62" s="705">
         <v>45100</v>
       </c>
       <c r="Q62" s="543"/>
@@ -58898,7 +58947,7 @@
       <c r="V62" s="50"/>
     </row>
     <row r="63" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="659"/>
+      <c r="A63" s="623"/>
       <c r="B63" s="153" t="s">
         <v>126</v>
       </c>
@@ -58926,8 +58975,8 @@
         <f t="shared" si="4"/>
         <v>10243.199999999999</v>
       </c>
-      <c r="O63" s="696"/>
-      <c r="P63" s="698"/>
+      <c r="O63" s="704"/>
+      <c r="P63" s="706"/>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
       <c r="S63" s="48"/>
@@ -60086,8 +60135,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O94" s="614"/>
-      <c r="P94" s="672"/>
+      <c r="O94" s="618"/>
+      <c r="P94" s="676"/>
       <c r="Q94" s="158"/>
       <c r="R94" s="125"/>
       <c r="S94" s="176"/>
@@ -60116,8 +60165,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O95" s="615"/>
-      <c r="P95" s="673"/>
+      <c r="O95" s="619"/>
+      <c r="P95" s="677"/>
       <c r="Q95" s="158"/>
       <c r="R95" s="125"/>
       <c r="S95" s="176"/>
@@ -60548,8 +60597,8 @@
         <v>0</v>
       </c>
       <c r="K109" s="81"/>
-      <c r="L109" s="612"/>
-      <c r="M109" s="613"/>
+      <c r="L109" s="616"/>
+      <c r="M109" s="617"/>
       <c r="N109" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -60581,8 +60630,8 @@
         <v>0</v>
       </c>
       <c r="K110" s="81"/>
-      <c r="L110" s="612"/>
-      <c r="M110" s="613"/>
+      <c r="L110" s="616"/>
+      <c r="M110" s="617"/>
       <c r="N110" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -60785,8 +60834,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O116" s="614"/>
-      <c r="P116" s="616"/>
+      <c r="O116" s="618"/>
+      <c r="P116" s="620"/>
       <c r="Q116" s="158"/>
       <c r="R116" s="125"/>
       <c r="S116" s="176"/>
@@ -60818,8 +60867,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O117" s="615"/>
-      <c r="P117" s="617"/>
+      <c r="O117" s="619"/>
+      <c r="P117" s="621"/>
       <c r="Q117" s="158"/>
       <c r="R117" s="125"/>
       <c r="S117" s="176"/>
@@ -66208,11 +66257,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F281" s="603" t="s">
+      <c r="F281" s="607" t="s">
         <v>27</v>
       </c>
-      <c r="G281" s="603"/>
-      <c r="H281" s="604"/>
+      <c r="G281" s="607"/>
+      <c r="H281" s="608"/>
       <c r="I281" s="303">
         <f>SUM(I4:I280)</f>
         <v>321629.7</v>
@@ -66781,6 +66830,13 @@
     <sortCondition ref="G4:G6"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
     <mergeCell ref="L109:M110"/>
     <mergeCell ref="O116:O117"/>
     <mergeCell ref="P116:P117"/>
@@ -66789,13 +66845,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="G62:G63"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/ENTRADAS  OBRADOR   Julio      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/ENTRADAS  OBRADOR   Julio      2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="402">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1251,6 +1251,18 @@
   </si>
   <si>
     <t>0198 D1</t>
+  </si>
+  <si>
+    <t>0226 D1</t>
+  </si>
+  <si>
+    <t>0227 D1</t>
+  </si>
+  <si>
+    <t>0234 D1</t>
+  </si>
+  <si>
+    <t>0249 D1</t>
   </si>
 </sst>
 </file>
@@ -4698,88 +4710,40 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4818,41 +4782,89 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4867,6 +4879,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4917,17 +4941,17 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4940,18 +4964,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17428,13 +17440,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="664" t="s">
+      <c r="A59" s="624" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="666" t="s">
+      <c r="C59" s="626" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -17442,10 +17454,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="668">
+      <c r="G59" s="628">
         <v>44981</v>
       </c>
-      <c r="H59" s="670" t="s">
+      <c r="H59" s="630" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -17464,10 +17476,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="672" t="s">
+      <c r="O59" s="632" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="662">
+      <c r="P59" s="622">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -17478,18 +17490,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="665"/>
+      <c r="A60" s="625"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="667"/>
+      <c r="C60" s="627"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="669"/>
-      <c r="H60" s="671"/>
+      <c r="G60" s="629"/>
+      <c r="H60" s="631"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17506,8 +17518,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="673"/>
-      <c r="P60" s="663"/>
+      <c r="O60" s="633"/>
+      <c r="P60" s="623"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17745,7 +17757,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="622" t="s">
+      <c r="A66" s="662" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17757,10 +17769,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="624">
+      <c r="G66" s="664">
         <v>44973</v>
       </c>
-      <c r="H66" s="626" t="s">
+      <c r="H66" s="666" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17779,10 +17791,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="628" t="s">
+      <c r="O66" s="668" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="630">
+      <c r="P66" s="670">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17793,7 +17805,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="623"/>
+      <c r="A67" s="663"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17803,8 +17815,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="625"/>
-      <c r="H67" s="627"/>
+      <c r="G67" s="665"/>
+      <c r="H67" s="667"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17821,8 +17833,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="629"/>
-      <c r="P67" s="631"/>
+      <c r="O67" s="669"/>
+      <c r="P67" s="671"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17880,13 +17892,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="652" t="s">
+      <c r="A69" s="636" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="654" t="s">
+      <c r="C69" s="638" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17894,10 +17906,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="658">
+      <c r="G69" s="642">
         <v>44979</v>
       </c>
-      <c r="H69" s="656" t="s">
+      <c r="H69" s="640" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17916,10 +17928,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="660" t="s">
+      <c r="O69" s="644" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="650">
+      <c r="P69" s="634">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17930,18 +17942,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="653"/>
+      <c r="A70" s="637"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="655"/>
+      <c r="C70" s="639"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="659"/>
-      <c r="H70" s="657"/>
+      <c r="G70" s="643"/>
+      <c r="H70" s="641"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17958,8 +17970,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="661"/>
-      <c r="P70" s="651"/>
+      <c r="O70" s="645"/>
+      <c r="P70" s="635"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17968,13 +17980,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="640" t="s">
+      <c r="A71" s="650" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="638" t="s">
+      <c r="C71" s="648" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17982,10 +17994,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="643">
+      <c r="G71" s="653">
         <v>44982</v>
       </c>
-      <c r="H71" s="645" t="s">
+      <c r="H71" s="655" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -18004,10 +18016,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="634" t="s">
+      <c r="O71" s="658" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="636">
+      <c r="P71" s="646">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -18018,18 +18030,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="640"/>
+      <c r="A72" s="650"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="642"/>
+      <c r="C72" s="652"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="643"/>
-      <c r="H72" s="646"/>
+      <c r="G72" s="653"/>
+      <c r="H72" s="656"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -18046,8 +18058,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="648"/>
-      <c r="P72" s="649"/>
+      <c r="O72" s="659"/>
+      <c r="P72" s="661"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -18056,18 +18068,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="641"/>
+      <c r="A73" s="651"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="639"/>
+      <c r="C73" s="649"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="644"/>
-      <c r="H73" s="647"/>
+      <c r="G73" s="654"/>
+      <c r="H73" s="657"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -18084,8 +18096,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="635"/>
-      <c r="P73" s="637"/>
+      <c r="O73" s="660"/>
+      <c r="P73" s="647"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -18261,13 +18273,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="622" t="s">
+      <c r="A80" s="662" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="638" t="s">
+      <c r="C80" s="648" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -18278,7 +18290,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="632" t="s">
+      <c r="H80" s="672" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -18297,10 +18309,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="634" t="s">
+      <c r="O80" s="658" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="636">
+      <c r="P80" s="646">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -18311,11 +18323,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="623"/>
+      <c r="A81" s="663"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="639"/>
+      <c r="C81" s="649"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -18324,7 +18336,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="633"/>
+      <c r="H81" s="673"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -18341,8 +18353,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="635"/>
-      <c r="P81" s="637"/>
+      <c r="O81" s="660"/>
+      <c r="P81" s="647"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -25134,26 +25146,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -25170,6 +25162,26 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28897,13 +28909,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="622" t="s">
+      <c r="A83" s="662" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="638" t="s">
+      <c r="C83" s="648" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28911,7 +28923,7 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="668">
+      <c r="G83" s="628">
         <v>45014</v>
       </c>
       <c r="H83" s="674" t="s">
@@ -28949,17 +28961,17 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="623"/>
+      <c r="A84" s="663"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="639"/>
+      <c r="C84" s="649"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="669"/>
+      <c r="G84" s="629"/>
       <c r="H84" s="675"/>
       <c r="I84" s="155">
         <v>142.5771</v>
@@ -38234,13 +38246,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="689" t="s">
+      <c r="A60" s="693" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="638" t="s">
+      <c r="C60" s="648" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -38248,10 +38260,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="691">
+      <c r="G60" s="695">
         <v>45023</v>
       </c>
-      <c r="H60" s="693" t="s">
+      <c r="H60" s="697" t="s">
         <v>292</v>
       </c>
       <c r="I60" s="402">
@@ -38270,10 +38282,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="695" t="s">
+      <c r="O60" s="679" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="697">
+      <c r="P60" s="681">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -38284,18 +38296,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="690"/>
+      <c r="A61" s="694"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="639"/>
+      <c r="C61" s="649"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="692"/>
-      <c r="H61" s="694"/>
+      <c r="G61" s="696"/>
+      <c r="H61" s="698"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -38312,8 +38324,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="696"/>
-      <c r="P61" s="698"/>
+      <c r="O61" s="680"/>
+      <c r="P61" s="682"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38524,13 +38536,13 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="679" t="s">
+      <c r="A66" s="683" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="519" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="681" t="s">
+      <c r="C66" s="685" t="s">
         <v>255</v>
       </c>
       <c r="D66" s="517"/>
@@ -38538,10 +38550,10 @@
       <c r="F66" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G66" s="685">
+      <c r="G66" s="689">
         <v>45041</v>
       </c>
-      <c r="H66" s="683">
+      <c r="H66" s="687">
         <v>145029</v>
       </c>
       <c r="I66" s="515">
@@ -38560,10 +38572,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O66" s="687" t="s">
+      <c r="O66" s="691" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="636">
+      <c r="P66" s="646">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38574,18 +38586,18 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="680"/>
+      <c r="A67" s="684"/>
       <c r="B67" s="519" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="682"/>
+      <c r="C67" s="686"/>
       <c r="D67" s="517"/>
       <c r="E67" s="56"/>
       <c r="F67" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G67" s="686"/>
-      <c r="H67" s="684"/>
+      <c r="G67" s="690"/>
+      <c r="H67" s="688"/>
       <c r="I67" s="527">
         <v>1007.3</v>
       </c>
@@ -38602,8 +38614,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O67" s="688"/>
-      <c r="P67" s="637"/>
+      <c r="O67" s="692"/>
+      <c r="P67" s="647"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -45967,13 +45979,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
@@ -45989,6 +45994,13 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56354,16 +56366,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L104:M105"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="F276:H276"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O89:O90"/>
     <mergeCell ref="P89:P90"/>
-    <mergeCell ref="L104:M105"/>
-    <mergeCell ref="O111:O112"/>
-    <mergeCell ref="P111:P112"/>
-    <mergeCell ref="F276:H276"/>
-    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56381,7 +56393,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C16:C17"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -57157,11 +57169,15 @@
       <c r="B15" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="73">
+        <v>53</v>
+      </c>
       <c r="E15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>565510</v>
       </c>
       <c r="F15" s="504">
         <v>10670</v>
@@ -57206,11 +57222,15 @@
       <c r="B16" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="56">
+        <v>53</v>
+      </c>
       <c r="E16" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>729810</v>
       </c>
       <c r="F16" s="504">
         <v>13770</v>
@@ -57255,11 +57275,15 @@
       <c r="B17" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="D17" s="56">
+        <v>53</v>
+      </c>
       <c r="E17" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714440</v>
       </c>
       <c r="F17" s="504">
         <v>13480</v>
@@ -57304,11 +57328,15 @@
       <c r="B18" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="56"/>
+      <c r="C18" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="56">
+        <v>53</v>
+      </c>
       <c r="E18" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1377395.7999999998</v>
       </c>
       <c r="F18" s="504">
         <v>25988.6</v>
@@ -58899,7 +58927,7 @@
       <c r="V61" s="50"/>
     </row>
     <row r="62" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="622" t="s">
+      <c r="A62" s="662" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="153" t="s">
@@ -58911,10 +58939,10 @@
       <c r="F62" s="155">
         <v>598.4</v>
       </c>
-      <c r="G62" s="701">
+      <c r="G62" s="705">
         <v>45080</v>
       </c>
-      <c r="H62" s="699" t="s">
+      <c r="H62" s="703" t="s">
         <v>351</v>
       </c>
       <c r="I62" s="155">
@@ -58933,10 +58961,10 @@
         <f t="shared" si="4"/>
         <v>51804</v>
       </c>
-      <c r="O62" s="703" t="s">
+      <c r="O62" s="699" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="705">
+      <c r="P62" s="701">
         <v>45100</v>
       </c>
       <c r="Q62" s="543"/>
@@ -58947,7 +58975,7 @@
       <c r="V62" s="50"/>
     </row>
     <row r="63" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="623"/>
+      <c r="A63" s="663"/>
       <c r="B63" s="153" t="s">
         <v>126</v>
       </c>
@@ -58957,8 +58985,8 @@
       <c r="F63" s="155">
         <v>105.6</v>
       </c>
-      <c r="G63" s="702"/>
-      <c r="H63" s="700"/>
+      <c r="G63" s="706"/>
+      <c r="H63" s="704"/>
       <c r="I63" s="155">
         <v>105.6</v>
       </c>
@@ -58975,8 +59003,8 @@
         <f t="shared" si="4"/>
         <v>10243.199999999999</v>
       </c>
-      <c r="O63" s="704"/>
-      <c r="P63" s="706"/>
+      <c r="O63" s="700"/>
+      <c r="P63" s="702"/>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
       <c r="S63" s="48"/>
@@ -66830,13 +66858,6 @@
     <sortCondition ref="G4:G6"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
     <mergeCell ref="L109:M110"/>
     <mergeCell ref="O116:O117"/>
     <mergeCell ref="P116:P117"/>
@@ -66845,6 +66866,13 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="G62:G63"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/ENTRADAS  OBRADOR   Julio      2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/ENTRADAS  OBRADOR   Julio      2023.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="404">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -1263,6 +1263,12 @@
   </si>
   <si>
     <t>0249 D1</t>
+  </si>
+  <si>
+    <t>0277 D1</t>
+  </si>
+  <si>
+    <t>0316 D1</t>
   </si>
 </sst>
 </file>
@@ -2965,7 +2971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="707">
+  <cellXfs count="712">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4665,6 +4671,12 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4710,40 +4722,88 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="14" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4782,89 +4842,41 @@
     <xf numFmtId="0" fontId="29" fillId="14" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="30" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4879,18 +4891,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="42" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4941,6 +4941,30 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4953,17 +4977,14 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5295,49 +5316,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="611" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="610" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="610"/>
+      <c r="S1" s="612" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="612"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="612" t="s">
+      <c r="W1" s="614" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="613"/>
+      <c r="X1" s="615"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="609"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="609"/>
-      <c r="J2" s="609"/>
+      <c r="A2" s="611"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="611"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="611"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -5345,8 +5366,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
+      <c r="S2" s="613"/>
+      <c r="T2" s="613"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -5391,10 +5412,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="614" t="s">
+      <c r="O3" s="616" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="615"/>
+      <c r="P3" s="617"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -8715,8 +8736,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="616"/>
-      <c r="M90" s="617"/>
+      <c r="L90" s="618"/>
+      <c r="M90" s="619"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8748,8 +8769,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="616"/>
-      <c r="M91" s="617"/>
+      <c r="L91" s="618"/>
+      <c r="M91" s="619"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8952,8 +8973,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="618"/>
-      <c r="P97" s="620"/>
+      <c r="O97" s="620"/>
+      <c r="P97" s="622"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -8985,8 +9006,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="619"/>
-      <c r="P98" s="621"/>
+      <c r="O98" s="621"/>
+      <c r="P98" s="623"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -14378,11 +14399,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="607" t="s">
+      <c r="F262" s="609" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="607"/>
-      <c r="H262" s="608"/>
+      <c r="G262" s="609"/>
+      <c r="H262" s="610"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
         <v>288418.77</v>
@@ -15008,49 +15029,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="611" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="610" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="610"/>
+      <c r="S1" s="612" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="612"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="612" t="s">
+      <c r="W1" s="614" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="613"/>
+      <c r="X1" s="615"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="609"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="609"/>
-      <c r="J2" s="609"/>
+      <c r="A2" s="611"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="611"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="611"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -15058,8 +15079,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
+      <c r="S2" s="613"/>
+      <c r="T2" s="613"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -15104,10 +15125,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="614" t="s">
+      <c r="O3" s="616" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="615"/>
+      <c r="P3" s="617"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -17440,13 +17461,13 @@
       <c r="V58" s="50"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="624" t="s">
+      <c r="A59" s="666" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="626" t="s">
+      <c r="C59" s="668" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="409"/>
@@ -17454,10 +17475,10 @@
       <c r="F59" s="410">
         <v>1649.6</v>
       </c>
-      <c r="G59" s="628">
+      <c r="G59" s="670">
         <v>44981</v>
       </c>
-      <c r="H59" s="630" t="s">
+      <c r="H59" s="672" t="s">
         <v>145</v>
       </c>
       <c r="I59" s="402">
@@ -17476,10 +17497,10 @@
         <f t="shared" si="2"/>
         <v>148464</v>
       </c>
-      <c r="O59" s="632" t="s">
+      <c r="O59" s="674" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="622">
+      <c r="P59" s="664">
         <v>45008</v>
       </c>
       <c r="Q59" s="166"/>
@@ -17490,18 +17511,18 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="625"/>
+      <c r="A60" s="667"/>
       <c r="B60" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="627"/>
+      <c r="C60" s="669"/>
       <c r="D60" s="409"/>
       <c r="E60" s="56"/>
       <c r="F60" s="410">
         <v>83</v>
       </c>
-      <c r="G60" s="629"/>
-      <c r="H60" s="631"/>
+      <c r="G60" s="671"/>
+      <c r="H60" s="673"/>
       <c r="I60" s="402">
         <v>83</v>
       </c>
@@ -17518,8 +17539,8 @@
         <f t="shared" si="2"/>
         <v>7304</v>
       </c>
-      <c r="O60" s="633"/>
-      <c r="P60" s="623"/>
+      <c r="O60" s="675"/>
+      <c r="P60" s="665"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="125"/>
       <c r="S60" s="48"/>
@@ -17757,7 +17778,7 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="662" t="s">
+      <c r="A66" s="624" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="167" t="s">
@@ -17769,10 +17790,10 @@
       <c r="F66" s="155">
         <v>1224</v>
       </c>
-      <c r="G66" s="664">
+      <c r="G66" s="626">
         <v>44973</v>
       </c>
-      <c r="H66" s="666" t="s">
+      <c r="H66" s="628" t="s">
         <v>110</v>
       </c>
       <c r="I66" s="155">
@@ -17791,10 +17812,10 @@
         <f>K66*I66</f>
         <v>82008</v>
       </c>
-      <c r="O66" s="668" t="s">
+      <c r="O66" s="630" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="670">
+      <c r="P66" s="632">
         <v>44992</v>
       </c>
       <c r="Q66" s="166"/>
@@ -17805,7 +17826,7 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="663"/>
+      <c r="A67" s="625"/>
       <c r="B67" s="167" t="s">
         <v>24</v>
       </c>
@@ -17815,8 +17836,8 @@
       <c r="F67" s="155">
         <v>902.95899999999995</v>
       </c>
-      <c r="G67" s="665"/>
-      <c r="H67" s="667"/>
+      <c r="G67" s="627"/>
+      <c r="H67" s="629"/>
       <c r="I67" s="155">
         <v>902.95899999999995</v>
       </c>
@@ -17833,8 +17854,8 @@
         <f>K67*I67</f>
         <v>20768.056999999997</v>
       </c>
-      <c r="O67" s="669"/>
-      <c r="P67" s="671"/>
+      <c r="O67" s="631"/>
+      <c r="P67" s="633"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="176"/>
@@ -17892,13 +17913,13 @@
       <c r="V68" s="50"/>
     </row>
     <row r="69" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="636" t="s">
+      <c r="A69" s="654" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="400" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="638" t="s">
+      <c r="C69" s="656" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="409"/>
@@ -17906,10 +17927,10 @@
       <c r="F69" s="410">
         <v>80.7</v>
       </c>
-      <c r="G69" s="642">
+      <c r="G69" s="660">
         <v>44979</v>
       </c>
-      <c r="H69" s="640" t="s">
+      <c r="H69" s="658" t="s">
         <v>130</v>
       </c>
       <c r="I69" s="402">
@@ -17928,10 +17949,10 @@
         <f>K69*I69</f>
         <v>8877</v>
       </c>
-      <c r="O69" s="644" t="s">
+      <c r="O69" s="662" t="s">
         <v>127</v>
       </c>
-      <c r="P69" s="634">
+      <c r="P69" s="652">
         <v>45000</v>
       </c>
       <c r="Q69" s="166"/>
@@ -17942,18 +17963,18 @@
       <c r="V69" s="50"/>
     </row>
     <row r="70" spans="1:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="637"/>
+      <c r="A70" s="655"/>
       <c r="B70" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="639"/>
+      <c r="C70" s="657"/>
       <c r="D70" s="409"/>
       <c r="E70" s="56"/>
       <c r="F70" s="410">
         <v>151.4</v>
       </c>
-      <c r="G70" s="643"/>
-      <c r="H70" s="641"/>
+      <c r="G70" s="661"/>
+      <c r="H70" s="659"/>
       <c r="I70" s="402">
         <v>151.4</v>
       </c>
@@ -17970,8 +17991,8 @@
         <f t="shared" ref="N70:N80" si="4">K70*I70</f>
         <v>9084</v>
       </c>
-      <c r="O70" s="645"/>
-      <c r="P70" s="635"/>
+      <c r="O70" s="663"/>
+      <c r="P70" s="653"/>
       <c r="Q70" s="166"/>
       <c r="R70" s="125"/>
       <c r="S70" s="176"/>
@@ -17980,13 +18001,13 @@
       <c r="V70" s="50"/>
     </row>
     <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="650" t="s">
+      <c r="A71" s="642" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="400" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="648" t="s">
+      <c r="C71" s="640" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="398"/>
@@ -17994,10 +18015,10 @@
       <c r="F71" s="155">
         <v>130.16</v>
       </c>
-      <c r="G71" s="653">
+      <c r="G71" s="645">
         <v>44982</v>
       </c>
-      <c r="H71" s="655" t="s">
+      <c r="H71" s="647" t="s">
         <v>124</v>
       </c>
       <c r="I71" s="402">
@@ -18016,10 +18037,10 @@
         <f t="shared" si="4"/>
         <v>10412.799999999999</v>
       </c>
-      <c r="O71" s="658" t="s">
+      <c r="O71" s="636" t="s">
         <v>127</v>
       </c>
-      <c r="P71" s="646">
+      <c r="P71" s="638">
         <v>45000</v>
       </c>
       <c r="Q71" s="166"/>
@@ -18030,18 +18051,18 @@
       <c r="V71" s="50"/>
     </row>
     <row r="72" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="650"/>
+      <c r="A72" s="642"/>
       <c r="B72" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="652"/>
+      <c r="C72" s="644"/>
       <c r="D72" s="398"/>
       <c r="E72" s="56"/>
       <c r="F72" s="155">
         <v>89.64</v>
       </c>
-      <c r="G72" s="653"/>
-      <c r="H72" s="656"/>
+      <c r="G72" s="645"/>
+      <c r="H72" s="648"/>
       <c r="I72" s="402">
         <v>89.64</v>
       </c>
@@ -18058,8 +18079,8 @@
         <f t="shared" si="4"/>
         <v>6274.8</v>
       </c>
-      <c r="O72" s="659"/>
-      <c r="P72" s="661"/>
+      <c r="O72" s="650"/>
+      <c r="P72" s="651"/>
       <c r="Q72" s="166"/>
       <c r="R72" s="125"/>
       <c r="S72" s="176"/>
@@ -18068,18 +18089,18 @@
       <c r="V72" s="50"/>
     </row>
     <row r="73" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="651"/>
+      <c r="A73" s="643"/>
       <c r="B73" s="400" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="649"/>
+      <c r="C73" s="641"/>
       <c r="D73" s="398"/>
       <c r="E73" s="56"/>
       <c r="F73" s="155">
         <v>152.78</v>
       </c>
-      <c r="G73" s="654"/>
-      <c r="H73" s="657"/>
+      <c r="G73" s="646"/>
+      <c r="H73" s="649"/>
       <c r="I73" s="402">
         <v>152.78</v>
       </c>
@@ -18096,8 +18117,8 @@
         <f t="shared" si="4"/>
         <v>5805.64</v>
       </c>
-      <c r="O73" s="660"/>
-      <c r="P73" s="647"/>
+      <c r="O73" s="637"/>
+      <c r="P73" s="639"/>
       <c r="Q73" s="166"/>
       <c r="R73" s="125"/>
       <c r="S73" s="176"/>
@@ -18273,13 +18294,13 @@
       <c r="V79" s="50"/>
     </row>
     <row r="80" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="662" t="s">
+      <c r="A80" s="624" t="s">
         <v>82</v>
       </c>
       <c r="B80" s="397" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="648" t="s">
+      <c r="C80" s="640" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="398"/>
@@ -18290,7 +18311,7 @@
       <c r="G80" s="156">
         <v>44985</v>
       </c>
-      <c r="H80" s="672" t="s">
+      <c r="H80" s="634" t="s">
         <v>157</v>
       </c>
       <c r="I80" s="155">
@@ -18309,10 +18330,10 @@
         <f t="shared" si="4"/>
         <v>6519.5999999999995</v>
       </c>
-      <c r="O80" s="658" t="s">
+      <c r="O80" s="636" t="s">
         <v>120</v>
       </c>
-      <c r="P80" s="646">
+      <c r="P80" s="638">
         <v>45000</v>
       </c>
       <c r="Q80" s="166"/>
@@ -18323,11 +18344,11 @@
       <c r="V80" s="50"/>
     </row>
     <row r="81" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="663"/>
+      <c r="A81" s="625"/>
       <c r="B81" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="649"/>
+      <c r="C81" s="641"/>
       <c r="D81" s="398"/>
       <c r="E81" s="56"/>
       <c r="F81" s="155">
@@ -18336,7 +18357,7 @@
       <c r="G81" s="156">
         <v>44985</v>
       </c>
-      <c r="H81" s="673"/>
+      <c r="H81" s="635"/>
       <c r="I81" s="155">
         <v>76.94</v>
       </c>
@@ -18353,8 +18374,8 @@
         <f t="shared" si="2"/>
         <v>6155.2</v>
       </c>
-      <c r="O81" s="660"/>
-      <c r="P81" s="647"/>
+      <c r="O81" s="637"/>
+      <c r="P81" s="639"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="125"/>
       <c r="S81" s="176"/>
@@ -18905,8 +18926,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="616"/>
-      <c r="M99" s="617"/>
+      <c r="L99" s="618"/>
+      <c r="M99" s="619"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -18938,8 +18959,8 @@
         <v>0</v>
       </c>
       <c r="K100" s="81"/>
-      <c r="L100" s="616"/>
-      <c r="M100" s="617"/>
+      <c r="L100" s="618"/>
+      <c r="M100" s="619"/>
       <c r="N100" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -19142,8 +19163,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="618"/>
-      <c r="P106" s="620"/>
+      <c r="O106" s="620"/>
+      <c r="P106" s="622"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -19175,8 +19196,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O107" s="619"/>
-      <c r="P107" s="621"/>
+      <c r="O107" s="621"/>
+      <c r="P107" s="623"/>
       <c r="Q107" s="158"/>
       <c r="R107" s="125"/>
       <c r="S107" s="176"/>
@@ -24568,11 +24589,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F271" s="607" t="s">
+      <c r="F271" s="609" t="s">
         <v>27</v>
       </c>
-      <c r="G271" s="607"/>
-      <c r="H271" s="608"/>
+      <c r="G271" s="609"/>
+      <c r="H271" s="610"/>
       <c r="I271" s="303">
         <f>SUM(I4:I270)</f>
         <v>323525.489</v>
@@ -25146,6 +25167,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
     <mergeCell ref="F271:H271"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
@@ -25162,26 +25203,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H80:H81"/>
     <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O59:O60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25229,49 +25250,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="611" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="610" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="610"/>
+      <c r="S1" s="612" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="612"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="612" t="s">
+      <c r="W1" s="614" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="613"/>
+      <c r="X1" s="615"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="609"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="609"/>
-      <c r="J2" s="609"/>
+      <c r="A2" s="611"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="611"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="611"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -25279,8 +25300,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
+      <c r="S2" s="613"/>
+      <c r="T2" s="613"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -25325,10 +25346,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="614" t="s">
+      <c r="O3" s="616" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="615"/>
+      <c r="P3" s="617"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -28909,13 +28930,13 @@
       <c r="V82" s="50"/>
     </row>
     <row r="83" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="662" t="s">
+      <c r="A83" s="624" t="s">
         <v>147</v>
       </c>
       <c r="B83" s="397" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="648" t="s">
+      <c r="C83" s="640" t="s">
         <v>193</v>
       </c>
       <c r="D83" s="431"/>
@@ -28923,10 +28944,10 @@
       <c r="F83" s="410">
         <v>27.48</v>
       </c>
-      <c r="G83" s="628">
+      <c r="G83" s="670">
         <v>45014</v>
       </c>
-      <c r="H83" s="674" t="s">
+      <c r="H83" s="676" t="s">
         <v>180</v>
       </c>
       <c r="I83" s="155">
@@ -28939,7 +28960,7 @@
       <c r="K83" s="40">
         <v>70</v>
       </c>
-      <c r="L83" s="678" t="s">
+      <c r="L83" s="680" t="s">
         <v>194</v>
       </c>
       <c r="M83" s="61"/>
@@ -28947,10 +28968,10 @@
         <f t="shared" si="2"/>
         <v>1923.6000000000001</v>
       </c>
-      <c r="O83" s="618" t="s">
+      <c r="O83" s="620" t="s">
         <v>21</v>
       </c>
-      <c r="P83" s="676">
+      <c r="P83" s="678">
         <v>45016</v>
       </c>
       <c r="Q83" s="158"/>
@@ -28961,18 +28982,18 @@
       <c r="V83" s="50"/>
     </row>
     <row r="84" spans="1:22" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="663"/>
+      <c r="A84" s="625"/>
       <c r="B84" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="649"/>
+      <c r="C84" s="641"/>
       <c r="D84" s="431"/>
       <c r="E84" s="56"/>
       <c r="F84" s="410">
         <v>142.5</v>
       </c>
-      <c r="G84" s="629"/>
-      <c r="H84" s="675"/>
+      <c r="G84" s="671"/>
+      <c r="H84" s="677"/>
       <c r="I84" s="155">
         <v>142.5771</v>
       </c>
@@ -28983,14 +29004,14 @@
       <c r="K84" s="40">
         <v>70</v>
       </c>
-      <c r="L84" s="678"/>
+      <c r="L84" s="680"/>
       <c r="M84" s="61"/>
       <c r="N84" s="42">
         <f t="shared" si="2"/>
         <v>9980.3970000000008</v>
       </c>
-      <c r="O84" s="619"/>
-      <c r="P84" s="677"/>
+      <c r="O84" s="621"/>
+      <c r="P84" s="679"/>
       <c r="Q84" s="158"/>
       <c r="R84" s="125"/>
       <c r="S84" s="176"/>
@@ -29421,8 +29442,8 @@
         <v>0</v>
       </c>
       <c r="K98" s="81"/>
-      <c r="L98" s="616"/>
-      <c r="M98" s="617"/>
+      <c r="L98" s="618"/>
+      <c r="M98" s="619"/>
       <c r="N98" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29454,8 +29475,8 @@
         <v>0</v>
       </c>
       <c r="K99" s="81"/>
-      <c r="L99" s="616"/>
-      <c r="M99" s="617"/>
+      <c r="L99" s="618"/>
+      <c r="M99" s="619"/>
       <c r="N99" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -29658,8 +29679,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O105" s="618"/>
-      <c r="P105" s="620"/>
+      <c r="O105" s="620"/>
+      <c r="P105" s="622"/>
       <c r="Q105" s="158"/>
       <c r="R105" s="125"/>
       <c r="S105" s="176"/>
@@ -29691,8 +29712,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="619"/>
-      <c r="P106" s="621"/>
+      <c r="O106" s="621"/>
+      <c r="P106" s="623"/>
       <c r="Q106" s="158"/>
       <c r="R106" s="125"/>
       <c r="S106" s="176"/>
@@ -35084,11 +35105,11 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F270" s="607" t="s">
+      <c r="F270" s="609" t="s">
         <v>27</v>
       </c>
-      <c r="G270" s="607"/>
-      <c r="H270" s="608"/>
+      <c r="G270" s="609"/>
+      <c r="H270" s="610"/>
       <c r="I270" s="303">
         <f>SUM(I4:I269)</f>
         <v>601739.64578900009</v>
@@ -35724,49 +35745,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="611" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="610" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="610"/>
+      <c r="S1" s="612" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="612"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="612" t="s">
+      <c r="W1" s="614" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="613"/>
+      <c r="X1" s="615"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="609"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="609"/>
-      <c r="J2" s="609"/>
+      <c r="A2" s="611"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="611"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="611"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -35774,8 +35795,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
+      <c r="S2" s="613"/>
+      <c r="T2" s="613"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -35820,10 +35841,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="614" t="s">
+      <c r="O3" s="616" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="615"/>
+      <c r="P3" s="617"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -38246,13 +38267,13 @@
       <c r="V59" s="50"/>
     </row>
     <row r="60" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="693" t="s">
+      <c r="A60" s="691" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="418" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="648" t="s">
+      <c r="C60" s="640" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="409"/>
@@ -38260,10 +38281,10 @@
       <c r="F60" s="410">
         <v>847.4</v>
       </c>
-      <c r="G60" s="695">
+      <c r="G60" s="693">
         <v>45023</v>
       </c>
-      <c r="H60" s="697" t="s">
+      <c r="H60" s="695" t="s">
         <v>292</v>
       </c>
       <c r="I60" s="402">
@@ -38282,10 +38303,10 @@
         <f t="shared" si="2"/>
         <v>76266</v>
       </c>
-      <c r="O60" s="679" t="s">
+      <c r="O60" s="697" t="s">
         <v>21</v>
       </c>
-      <c r="P60" s="681">
+      <c r="P60" s="699">
         <v>45065</v>
       </c>
       <c r="Q60" s="543"/>
@@ -38296,18 +38317,18 @@
       <c r="V60" s="50"/>
     </row>
     <row r="61" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="694"/>
+      <c r="A61" s="692"/>
       <c r="B61" s="418" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="649"/>
+      <c r="C61" s="641"/>
       <c r="D61" s="409"/>
       <c r="E61" s="56"/>
       <c r="F61" s="410">
         <v>175.4</v>
       </c>
-      <c r="G61" s="696"/>
-      <c r="H61" s="698"/>
+      <c r="G61" s="694"/>
+      <c r="H61" s="696"/>
       <c r="I61" s="402">
         <v>175.4</v>
       </c>
@@ -38324,8 +38345,8 @@
         <f t="shared" si="2"/>
         <v>15435.2</v>
       </c>
-      <c r="O61" s="680"/>
-      <c r="P61" s="682"/>
+      <c r="O61" s="698"/>
+      <c r="P61" s="700"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="125"/>
       <c r="S61" s="48"/>
@@ -38536,13 +38557,13 @@
       <c r="V65" s="50"/>
     </row>
     <row r="66" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="683" t="s">
+      <c r="A66" s="681" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="519" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="685" t="s">
+      <c r="C66" s="683" t="s">
         <v>255</v>
       </c>
       <c r="D66" s="517"/>
@@ -38550,10 +38571,10 @@
       <c r="F66" s="493">
         <v>9084.5</v>
       </c>
-      <c r="G66" s="689">
+      <c r="G66" s="687">
         <v>45041</v>
       </c>
-      <c r="H66" s="687">
+      <c r="H66" s="685">
         <v>145029</v>
       </c>
       <c r="I66" s="515">
@@ -38572,10 +38593,10 @@
         <f t="shared" si="2"/>
         <v>417887</v>
       </c>
-      <c r="O66" s="691" t="s">
+      <c r="O66" s="689" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="646">
+      <c r="P66" s="638">
         <v>45054</v>
       </c>
       <c r="Q66" s="166"/>
@@ -38586,18 +38607,18 @@
       <c r="V66" s="50"/>
     </row>
     <row r="67" spans="1:22" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="684"/>
+      <c r="A67" s="682"/>
       <c r="B67" s="519" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="686"/>
+      <c r="C67" s="684"/>
       <c r="D67" s="517"/>
       <c r="E67" s="56"/>
       <c r="F67" s="526">
         <v>1007.3</v>
       </c>
-      <c r="G67" s="690"/>
-      <c r="H67" s="688"/>
+      <c r="G67" s="688"/>
+      <c r="H67" s="686"/>
       <c r="I67" s="527">
         <v>1007.3</v>
       </c>
@@ -38614,8 +38635,8 @@
         <f t="shared" si="2"/>
         <v>63459.899999999994</v>
       </c>
-      <c r="O67" s="692"/>
-      <c r="P67" s="647"/>
+      <c r="O67" s="690"/>
+      <c r="P67" s="639"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="125"/>
       <c r="S67" s="48"/>
@@ -39276,8 +39297,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O87" s="618"/>
-      <c r="P87" s="676"/>
+      <c r="O87" s="620"/>
+      <c r="P87" s="678"/>
       <c r="Q87" s="158"/>
       <c r="R87" s="125"/>
       <c r="S87" s="176"/>
@@ -39306,8 +39327,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O88" s="619"/>
-      <c r="P88" s="677"/>
+      <c r="O88" s="621"/>
+      <c r="P88" s="679"/>
       <c r="Q88" s="158"/>
       <c r="R88" s="125"/>
       <c r="S88" s="176"/>
@@ -39738,8 +39759,8 @@
         <v>0</v>
       </c>
       <c r="K102" s="81"/>
-      <c r="L102" s="616"/>
-      <c r="M102" s="617"/>
+      <c r="L102" s="618"/>
+      <c r="M102" s="619"/>
       <c r="N102" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39771,8 +39792,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="81"/>
-      <c r="L103" s="616"/>
-      <c r="M103" s="617"/>
+      <c r="L103" s="618"/>
+      <c r="M103" s="619"/>
       <c r="N103" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -39975,8 +39996,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O109" s="618"/>
-      <c r="P109" s="620"/>
+      <c r="O109" s="620"/>
+      <c r="P109" s="622"/>
       <c r="Q109" s="158"/>
       <c r="R109" s="125"/>
       <c r="S109" s="176"/>
@@ -40008,8 +40029,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O110" s="619"/>
-      <c r="P110" s="621"/>
+      <c r="O110" s="621"/>
+      <c r="P110" s="623"/>
       <c r="Q110" s="158"/>
       <c r="R110" s="125"/>
       <c r="S110" s="176"/>
@@ -45401,11 +45422,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F274" s="607" t="s">
+      <c r="F274" s="609" t="s">
         <v>27</v>
       </c>
-      <c r="G274" s="607"/>
-      <c r="H274" s="608"/>
+      <c r="G274" s="609"/>
+      <c r="H274" s="610"/>
       <c r="I274" s="303">
         <f>SUM(I4:I273)</f>
         <v>409425.92000000004</v>
@@ -45979,6 +46000,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
     <mergeCell ref="L102:M103"/>
     <mergeCell ref="O109:O110"/>
     <mergeCell ref="P109:P110"/>
@@ -45994,13 +46022,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O87:O88"/>
-    <mergeCell ref="P87:P88"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46046,49 +46067,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="611" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="610" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="610"/>
+      <c r="S1" s="612" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="612"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="612" t="s">
+      <c r="W1" s="614" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="613"/>
+      <c r="X1" s="615"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="609"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="609"/>
-      <c r="J2" s="609"/>
+      <c r="A2" s="611"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="611"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="611"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -46096,8 +46117,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
+      <c r="S2" s="613"/>
+      <c r="T2" s="613"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -46142,10 +46163,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="614" t="s">
+      <c r="O3" s="616" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="615"/>
+      <c r="P3" s="617"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -49663,8 +49684,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O89" s="618"/>
-      <c r="P89" s="676"/>
+      <c r="O89" s="620"/>
+      <c r="P89" s="678"/>
       <c r="Q89" s="158"/>
       <c r="R89" s="125"/>
       <c r="S89" s="176"/>
@@ -49693,8 +49714,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O90" s="619"/>
-      <c r="P90" s="677"/>
+      <c r="O90" s="621"/>
+      <c r="P90" s="679"/>
       <c r="Q90" s="158"/>
       <c r="R90" s="125"/>
       <c r="S90" s="176"/>
@@ -50125,8 +50146,8 @@
         <v>0</v>
       </c>
       <c r="K104" s="81"/>
-      <c r="L104" s="616"/>
-      <c r="M104" s="617"/>
+      <c r="L104" s="618"/>
+      <c r="M104" s="619"/>
       <c r="N104" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50158,8 +50179,8 @@
         <v>0</v>
       </c>
       <c r="K105" s="81"/>
-      <c r="L105" s="616"/>
-      <c r="M105" s="617"/>
+      <c r="L105" s="618"/>
+      <c r="M105" s="619"/>
       <c r="N105" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -50362,8 +50383,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O111" s="618"/>
-      <c r="P111" s="620"/>
+      <c r="O111" s="620"/>
+      <c r="P111" s="622"/>
       <c r="Q111" s="158"/>
       <c r="R111" s="125"/>
       <c r="S111" s="176"/>
@@ -50395,8 +50416,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O112" s="619"/>
-      <c r="P112" s="621"/>
+      <c r="O112" s="621"/>
+      <c r="P112" s="623"/>
       <c r="Q112" s="158"/>
       <c r="R112" s="125"/>
       <c r="S112" s="176"/>
@@ -55788,11 +55809,11 @@
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F276" s="607" t="s">
+      <c r="F276" s="609" t="s">
         <v>27</v>
       </c>
-      <c r="G276" s="607"/>
-      <c r="H276" s="608"/>
+      <c r="G276" s="609"/>
+      <c r="H276" s="610"/>
       <c r="I276" s="303">
         <f>SUM(I4:I275)</f>
         <v>446614.07</v>
@@ -56366,16 +56387,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="P89:P90"/>
     <mergeCell ref="L104:M105"/>
     <mergeCell ref="O111:O112"/>
     <mergeCell ref="P111:P112"/>
     <mergeCell ref="F276:H276"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O89:O90"/>
-    <mergeCell ref="P89:P90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56390,10 +56411,10 @@
   <dimension ref="A1:X314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -56423,49 +56444,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="611" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="609"/>
-      <c r="C1" s="609"/>
-      <c r="D1" s="609"/>
-      <c r="E1" s="609"/>
-      <c r="F1" s="609"/>
-      <c r="G1" s="609"/>
-      <c r="H1" s="609"/>
-      <c r="I1" s="609"/>
-      <c r="J1" s="609"/>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="611"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
       <c r="K1" s="363"/>
       <c r="L1" s="562"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="610" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="610"/>
+      <c r="S1" s="612" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="612"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="612" t="s">
+      <c r="W1" s="614" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="613"/>
+      <c r="X1" s="615"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="609"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="609"/>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="609"/>
-      <c r="J2" s="609"/>
+      <c r="A2" s="611"/>
+      <c r="B2" s="611"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="611"/>
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="611"/>
+      <c r="J2" s="611"/>
       <c r="K2" s="365"/>
       <c r="L2" s="563"/>
       <c r="M2" s="365"/>
@@ -56473,8 +56494,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="611"/>
-      <c r="T2" s="611"/>
+      <c r="S2" s="613"/>
+      <c r="T2" s="613"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -56519,10 +56540,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="614" t="s">
+      <c r="O3" s="616" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="615"/>
+      <c r="P3" s="617"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -57381,11 +57402,15 @@
       <c r="B19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" s="56">
+        <v>53</v>
+      </c>
       <c r="E19" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1268820</v>
       </c>
       <c r="F19" s="504">
         <v>23940</v>
@@ -57424,17 +57449,21 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="709" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="56">
+        <v>53</v>
+      </c>
       <c r="E20" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1269477.2000000002</v>
       </c>
       <c r="F20" s="504">
         <v>23952.400000000001</v>
@@ -57472,18 +57501,18 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="76"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="710"/>
+      <c r="B21" s="711"/>
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
       <c r="E21" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="504"/>
+      <c r="F21" s="608"/>
       <c r="G21" s="376"/>
       <c r="H21" s="453"/>
-      <c r="I21" s="491"/>
+      <c r="I21" s="607"/>
       <c r="J21" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -58927,7 +58956,7 @@
       <c r="V61" s="50"/>
     </row>
     <row r="62" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="662" t="s">
+      <c r="A62" s="624" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="153" t="s">
@@ -58939,10 +58968,10 @@
       <c r="F62" s="155">
         <v>598.4</v>
       </c>
-      <c r="G62" s="705">
+      <c r="G62" s="703">
         <v>45080</v>
       </c>
-      <c r="H62" s="703" t="s">
+      <c r="H62" s="701" t="s">
         <v>351</v>
       </c>
       <c r="I62" s="155">
@@ -58961,10 +58990,10 @@
         <f t="shared" si="4"/>
         <v>51804</v>
       </c>
-      <c r="O62" s="699" t="s">
+      <c r="O62" s="705" t="s">
         <v>64</v>
       </c>
-      <c r="P62" s="701">
+      <c r="P62" s="707">
         <v>45100</v>
       </c>
       <c r="Q62" s="543"/>
@@ -58975,7 +59004,7 @@
       <c r="V62" s="50"/>
     </row>
     <row r="63" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="663"/>
+      <c r="A63" s="625"/>
       <c r="B63" s="153" t="s">
         <v>126</v>
       </c>
@@ -58985,8 +59014,8 @@
       <c r="F63" s="155">
         <v>105.6</v>
       </c>
-      <c r="G63" s="706"/>
-      <c r="H63" s="704"/>
+      <c r="G63" s="704"/>
+      <c r="H63" s="702"/>
       <c r="I63" s="155">
         <v>105.6</v>
       </c>
@@ -59003,8 +59032,8 @@
         <f t="shared" si="4"/>
         <v>10243.199999999999</v>
       </c>
-      <c r="O63" s="700"/>
-      <c r="P63" s="702"/>
+      <c r="O63" s="706"/>
+      <c r="P63" s="708"/>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
       <c r="S63" s="48"/>
@@ -60163,8 +60192,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O94" s="618"/>
-      <c r="P94" s="676"/>
+      <c r="O94" s="620"/>
+      <c r="P94" s="678"/>
       <c r="Q94" s="158"/>
       <c r="R94" s="125"/>
       <c r="S94" s="176"/>
@@ -60193,8 +60222,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O95" s="619"/>
-      <c r="P95" s="677"/>
+      <c r="O95" s="621"/>
+      <c r="P95" s="679"/>
       <c r="Q95" s="158"/>
       <c r="R95" s="125"/>
       <c r="S95" s="176"/>
@@ -60625,8 +60654,8 @@
         <v>0</v>
       </c>
       <c r="K109" s="81"/>
-      <c r="L109" s="616"/>
-      <c r="M109" s="617"/>
+      <c r="L109" s="618"/>
+      <c r="M109" s="619"/>
       <c r="N109" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -60658,8 +60687,8 @@
         <v>0</v>
       </c>
       <c r="K110" s="81"/>
-      <c r="L110" s="616"/>
-      <c r="M110" s="617"/>
+      <c r="L110" s="618"/>
+      <c r="M110" s="619"/>
       <c r="N110" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -60862,8 +60891,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O116" s="618"/>
-      <c r="P116" s="620"/>
+      <c r="O116" s="620"/>
+      <c r="P116" s="622"/>
       <c r="Q116" s="158"/>
       <c r="R116" s="125"/>
       <c r="S116" s="176"/>
@@ -60895,8 +60924,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O117" s="619"/>
-      <c r="P117" s="621"/>
+      <c r="O117" s="621"/>
+      <c r="P117" s="623"/>
       <c r="Q117" s="158"/>
       <c r="R117" s="125"/>
       <c r="S117" s="176"/>
@@ -66285,11 +66314,11 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F281" s="607" t="s">
+      <c r="F281" s="609" t="s">
         <v>27</v>
       </c>
-      <c r="G281" s="607"/>
-      <c r="H281" s="608"/>
+      <c r="G281" s="609"/>
+      <c r="H281" s="610"/>
       <c r="I281" s="303">
         <f>SUM(I4:I280)</f>
         <v>321629.7</v>
@@ -66858,6 +66887,13 @@
     <sortCondition ref="G4:G6"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
     <mergeCell ref="L109:M110"/>
     <mergeCell ref="O116:O117"/>
     <mergeCell ref="P116:P117"/>
@@ -66866,13 +66902,6 @@
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="G62:G63"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
